--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4FEF0-982F-6A4A-A7CC-BB8BBB6CD580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6ACBC-FD1A-E448-B4C0-43E8C5A634F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1120" yWindow="-25380" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
+    <workbookView xWindow="16840" yWindow="-19580" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2190,10 +2190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>凱擘大寬頻 / 北桃園數位有線電視</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2345,6 +2341,10 @@
 												Play&lt;/a&gt;,
 											&lt;a href="https://apps.apple.com/tw/app/%E6%99%82%E9%96%93%E7%9B%B8%E6%A9%9F/id840110184"&gt;App
 												Store&lt;/a&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱擘大寬頻 北桃園數位有線電視</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2813,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2857,30 +2857,30 @@
         <v>233</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
@@ -2888,25 +2888,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
@@ -2940,25 +2940,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
@@ -3229,7 +3229,7 @@
         <v>216</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>160</v>
@@ -3281,7 +3281,7 @@
         <v>191</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>90</v>
@@ -3299,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3351,7 +3351,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3901,7 +3901,7 @@
         <v>213</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>43</v>

--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E6ACBC-FD1A-E448-B4C0-43E8C5A634F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229A734F-379D-F34F-BF77-A2C61AE67AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="-19580" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
+    <workbookView xWindow="1600" yWindow="-20120" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>台灣自來水公司第二區管理處龜山服務所</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -597,9 +594,6 @@
     <t>https://ntyc.kbro.com.tw/K09/cm-promo-more-2_3_0_603_160.html</t>
   </si>
   <si>
-    <t>JGNet 宅急網</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -722,9 +716,6 @@
     <t>https://www.jgnet.tw/</t>
   </si>
   <si>
-    <t>Kingnet 今網寬頻</t>
-  </si>
-  <si>
     <t>03-412-8166</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1709,10 +1700,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">新北林口圖書館 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1776,10 +1763,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">兒童專屬圖書館　林口李科永紀念圖書館 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2186,10 +2169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>台灣之星 龜山文化服務中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2214,10 +2193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>健保署北區業務組 桃園聯絡辦公室</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>桃園市桃園區介壽路11-4號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2291,10 +2266,6 @@
   </si>
   <si>
     <t>https://hmv.thb.gov.tw/cl.aspx?n=1315</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新竹區監理所 桃園監理站</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2344,7 +2315,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>凱擘大寬頻 北桃園數位有線電視</t>
+    <t>新北林口圖書館</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兒童專屬圖書館林口李科永紀念圖書館</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣自來水公司第二區管理處龜山服務所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹區監理所桃園監理站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>健保署北區業務組</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園聯絡辦公室</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingnet今網寬頻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JGNet宅急網</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱擘大寬頻北桃園數位有線電視</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣之星龜山文化服務中心</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2813,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2833,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2848,39 +2879,39 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
@@ -2888,25 +2919,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
@@ -2914,25 +2945,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
@@ -2940,25 +2971,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
@@ -2966,25 +2997,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -2992,25 +3023,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
@@ -3018,25 +3049,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -3044,25 +3075,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -3070,25 +3101,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -3096,25 +3127,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -3122,25 +3153,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="F12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -3148,25 +3179,25 @@
     </row>
     <row r="13" spans="1:9" ht="18">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
@@ -3174,25 +3205,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -3200,25 +3231,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="F15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -3226,25 +3257,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>163</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -3252,25 +3283,25 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="F17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -3278,51 +3309,51 @@
     </row>
     <row r="18" spans="1:9" ht="209">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="F19" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
@@ -3330,48 +3361,48 @@
     </row>
     <row r="20" spans="1:9" ht="305">
       <c r="A20" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -3379,22 +3410,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
@@ -3402,22 +3433,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
@@ -3425,22 +3456,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
@@ -3448,22 +3479,22 @@
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
@@ -3471,25 +3502,25 @@
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -3497,22 +3528,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -3520,22 +3551,22 @@
     </row>
     <row r="28" spans="1:9" ht="17">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>10</v>
@@ -3543,22 +3574,22 @@
     </row>
     <row r="29" spans="1:9" ht="17">
       <c r="A29" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -3566,7 +3597,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -3581,7 +3612,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>9</v>
@@ -3592,25 +3623,25 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>10</v>
@@ -3618,25 +3649,25 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -3644,25 +3675,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -3670,25 +3701,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="F34" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -3696,25 +3727,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -3722,22 +3753,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>10</v>
@@ -3745,22 +3776,22 @@
     </row>
     <row r="37" spans="1:8" ht="32">
       <c r="A37" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>10</v>
@@ -3768,25 +3799,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>10</v>
@@ -3794,25 +3825,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>10</v>
@@ -3820,25 +3851,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -3846,25 +3877,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -3872,25 +3903,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -3898,25 +3929,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -3924,25 +3955,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -3950,22 +3981,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>

--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229A734F-379D-F34F-BF77-A2C61AE67AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E0DB5-C019-B444-9E37-FC294AD69784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="-20120" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
+    <workbookView xWindow="2080" yWindow="560" windowWidth="25960" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -480,9 +480,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.fetnet.net/content/cbu/tw/index.html</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2376,6 +2373,10 @@
   </si>
   <si>
     <t>台灣之星龜山文化服務中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.fetnet.net/content/cbu/tw/index.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2844,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2864,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2879,39 +2880,39 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
@@ -2919,25 +2920,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
@@ -2945,25 +2946,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
@@ -2971,25 +2972,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
@@ -2997,25 +2998,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -3023,25 +3024,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
@@ -3049,25 +3050,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -3075,25 +3076,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -3101,25 +3102,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -3127,25 +3128,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -3153,25 +3154,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -3179,25 +3180,25 @@
     </row>
     <row r="13" spans="1:9" ht="18">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
@@ -3205,25 +3206,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -3231,25 +3232,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -3257,25 +3258,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -3283,25 +3284,25 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -3309,51 +3310,51 @@
     </row>
     <row r="18" spans="1:9" ht="209">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
@@ -3361,48 +3362,48 @@
     </row>
     <row r="20" spans="1:9" ht="305">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -3410,22 +3411,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
@@ -3433,22 +3434,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
@@ -3456,22 +3457,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
@@ -3479,22 +3480,22 @@
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
@@ -3502,25 +3503,25 @@
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -3528,22 +3529,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="F27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -3551,22 +3552,22 @@
     </row>
     <row r="28" spans="1:9" ht="17">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>10</v>
@@ -3574,22 +3575,22 @@
     </row>
     <row r="29" spans="1:9" ht="17">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="F29" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -3597,7 +3598,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
@@ -3612,7 +3613,7 @@
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>9</v>
@@ -3623,10 +3624,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
@@ -3638,7 +3639,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>14</v>
@@ -3649,7 +3650,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>15</v>
@@ -3664,7 +3665,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>18</v>
@@ -3675,7 +3676,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -3690,7 +3691,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>23</v>
@@ -3701,25 +3702,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -3727,25 +3728,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -3753,22 +3754,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>10</v>
@@ -3776,22 +3777,22 @@
     </row>
     <row r="37" spans="1:8" ht="32">
       <c r="A37" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="E37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>10</v>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>24</v>
@@ -3814,7 +3815,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>28</v>
@@ -3825,7 +3826,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -3840,7 +3841,7 @@
         <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>32</v>
@@ -3851,22 +3852,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="D40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>33</v>
@@ -3877,10 +3878,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>34</v>
@@ -3892,10 +3893,10 @@
         <v>36</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>37</v>
+        <v>261</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -3903,25 +3904,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -3929,25 +3930,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -3955,25 +3956,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -3981,22 +3982,22 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -4040,6 +4041,7 @@
     <hyperlink ref="G2" r:id="rId30" xr:uid="{39A7AEC3-E3F2-674E-B18D-DAD6D1D7518E}"/>
     <hyperlink ref="G3" r:id="rId31" xr:uid="{4C2D4724-69BF-6044-8404-581A44D577AC}"/>
     <hyperlink ref="G5" r:id="rId32" xr:uid="{0839A856-06F7-FE40-B60D-BC1AE0C5C782}"/>
+    <hyperlink ref="G41" r:id="rId33" xr:uid="{3B61FDA1-49F9-A549-9BEA-261B9DF6B35F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05E0DB5-C019-B444-9E37-FC294AD69784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B10A06F-D8DE-5742-A199-F898489208CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="560" windowWidth="25960" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="311">
   <si>
     <t>title</t>
   </si>
@@ -2377,6 +2377,66 @@
   </si>
   <si>
     <t>https://www.fetnet.net/content/cbu/tw/index.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M045</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市教育局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區縣府路1號14, 15樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00 - 12:00, 13:00 - 17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUN-045.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tyc.edu.tw/Default.aspx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.tyc.edu.tw/News.aspx?n=5208&amp;sms=11286&amp;_CSN=108"&gt;桃園學區資訊&lt;/a&gt;&lt;br&gt;
+A7 重劃區 113學年度國民中小學學區
+&lt;table class="table table-responsive table-bordered table-sm" &gt;
+&lt;thead class="align-middle"&gt;
+  &lt;tr&gt;
+   &lt;th&gt;學校名稱&lt;/th&gt;&lt;th&gt;學區&lt;/th&gt;&lt;th&gt;聯絡電話&lt;/th&gt;
+  &lt;/tr&gt;
+&lt;/thead&gt;
+&lt;tbody&gt;
+  &lt;tr&gt;
+    &lt;td&gt;樂善國小 &lt;/td&gt;
+    &lt;td&gt;樂善里（6-7、10-29），◎樂善里（1、8、9、30），◎長庚里（27-30）&lt;/td&gt;
+    &lt;td&gt;328-1002&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;長庚國小 &lt;/td&gt;
+    &lt;td&gt;長庚里（1-26），◎長庚里（27-30）&lt;/td&gt;
+    &lt;td&gt;318-2643&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td&gt;文青國小&lt;/td&gt;
+    &lt;td&gt;樂善里（2、3、4、5），◎樂善里（1、8、9、30），◎文青里（4-45）&lt;/td&gt;
+    &lt;td&gt;359-4000&lt;/td&gt;
+  &lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+備註:
+&lt;ul&gt;
+&lt;li&gt;長庚里（27-30）為樂善、長庚國小自由學區。&lt;/li&gt;
+&lt;li&gt;樂善里（（1、8、9、30）為樂善、文青國中小自由學區。&lt;/li&gt;
+&lt;li&gt;文青里（4-45）為文青國中小、大埔國小自由學區。&lt;/li&gt;
+&lt;/ul&gt;
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2843,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2996,53 +3056,56 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="409.6">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>304</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>147</v>
+        <v>305</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>148</v>
+        <v>308</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>163</v>
+        <v>229</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
@@ -3050,25 +3113,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -3076,25 +3139,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>165</v>
+        <v>268</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -3102,25 +3165,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -3128,25 +3191,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -3154,77 +3217,77 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="1" t="s">
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18">
+      <c r="A14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -3232,25 +3295,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -3258,25 +3321,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -3284,149 +3347,152 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="209">
-      <c r="A18" s="1" t="s">
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="209">
+      <c r="A19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="305">
-      <c r="A20" s="1" t="s">
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="305">
+      <c r="A21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>55</v>
+        <v>240</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
@@ -3434,22 +3500,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
@@ -3457,45 +3523,45 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
@@ -3503,71 +3569,71 @@
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="17">
-      <c r="A28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>10</v>
@@ -3575,48 +3641,45 @@
     </row>
     <row r="29" spans="1:9" ht="17">
       <c r="A29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17">
+      <c r="A30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
@@ -3624,25 +3687,25 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>10</v>
@@ -3650,25 +3713,25 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -3676,25 +3739,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -3702,25 +3765,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>115</v>
+        <v>253</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -3728,25 +3791,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>117</v>
+        <v>255</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -3754,71 +3817,71 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="32">
-      <c r="A37" s="1" t="s">
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="32">
+      <c r="A38" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>10</v>
@@ -3826,25 +3889,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>10</v>
@@ -3852,25 +3915,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>101</v>
+        <v>26</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -3878,25 +3941,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>303</v>
+        <v>260</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -3904,25 +3967,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>40</v>
+        <v>261</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -3930,25 +3993,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -3956,25 +4019,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -3982,66 +4045,93 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:H45">
-    <sortCondition ref="A10:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H46">
+    <sortCondition ref="A11:A46"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G22" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
-    <hyperlink ref="G23" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
-    <hyperlink ref="G24" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
-    <hyperlink ref="G25" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
-    <hyperlink ref="G27" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
-    <hyperlink ref="G38" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
-    <hyperlink ref="G39" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
+    <hyperlink ref="G24" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
+    <hyperlink ref="G25" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
+    <hyperlink ref="G26" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
+    <hyperlink ref="G28" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
+    <hyperlink ref="G39" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
+    <hyperlink ref="G40" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
     <hyperlink ref="G4" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
-    <hyperlink ref="G11" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
-    <hyperlink ref="G20" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
-    <hyperlink ref="G18" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
-    <hyperlink ref="G21" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
-    <hyperlink ref="G28" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
-    <hyperlink ref="G29" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
-    <hyperlink ref="G34" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
-    <hyperlink ref="G35" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
-    <hyperlink ref="G12" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
-    <hyperlink ref="G14" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
-    <hyperlink ref="G15" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
-    <hyperlink ref="G17" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
-    <hyperlink ref="G19" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
-    <hyperlink ref="G13" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
-    <hyperlink ref="G16" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
-    <hyperlink ref="G7" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
-    <hyperlink ref="G9" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
-    <hyperlink ref="G8" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
-    <hyperlink ref="G36" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
-    <hyperlink ref="G37" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
+    <hyperlink ref="G21" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
+    <hyperlink ref="G19" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
+    <hyperlink ref="G22" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
+    <hyperlink ref="G29" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
+    <hyperlink ref="G30" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
+    <hyperlink ref="G35" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
+    <hyperlink ref="G36" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
+    <hyperlink ref="G13" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
+    <hyperlink ref="G15" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
+    <hyperlink ref="G16" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
+    <hyperlink ref="G18" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
+    <hyperlink ref="G20" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
+    <hyperlink ref="G14" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
+    <hyperlink ref="G17" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
+    <hyperlink ref="G8" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
+    <hyperlink ref="G10" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
+    <hyperlink ref="G9" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
+    <hyperlink ref="G37" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
+    <hyperlink ref="G38" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
     <hyperlink ref="G2" r:id="rId30" xr:uid="{39A7AEC3-E3F2-674E-B18D-DAD6D1D7518E}"/>
     <hyperlink ref="G3" r:id="rId31" xr:uid="{4C2D4724-69BF-6044-8404-581A44D577AC}"/>
     <hyperlink ref="G5" r:id="rId32" xr:uid="{0839A856-06F7-FE40-B60D-BC1AE0C5C782}"/>
-    <hyperlink ref="G41" r:id="rId33" xr:uid="{3B61FDA1-49F9-A549-9BEA-261B9DF6B35F}"/>
+    <hyperlink ref="G42" r:id="rId33" xr:uid="{3B61FDA1-49F9-A549-9BEA-261B9DF6B35F}"/>
+    <hyperlink ref="G6" r:id="rId34" xr:uid="{113C73C1-F5A3-AC4B-BE44-A0650E11154E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B10A06F-D8DE-5742-A199-F898489208CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C76D6-7E49-EA44-8D7B-FC1F64925EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="560" windowWidth="25960" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
+    <workbookView xWindow="7420" yWindow="-20720" windowWidth="25960" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="317">
   <si>
     <t>title</t>
   </si>
@@ -2437,6 +2437,30 @@
 &lt;li&gt;文青里（4-45）為文青國中小、大埔國小自由學區。&lt;/li&gt;
 &lt;/ul&gt;
 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M046</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dowcd.tycg.gov.tw/Default.aspx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區縣府路1號8樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一-週五 08:00 - 12:00, 13:00 - 17:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園婦幼發展局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUN-046.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2607,9 +2631,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2647,7 +2671,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2753,7 +2777,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2895,7 +2919,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2903,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3113,25 +3137,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>311</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>163</v>
+        <v>316</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -3139,25 +3163,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -3165,25 +3189,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>165</v>
+        <v>268</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -3191,25 +3215,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -3217,25 +3241,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -3243,77 +3267,77 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18">
-      <c r="A14" s="1" t="s">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18">
+      <c r="A15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -3321,25 +3345,25 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -3347,25 +3371,25 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -3373,149 +3397,152 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="209">
-      <c r="A19" s="1" t="s">
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="209">
+      <c r="A20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="305">
-      <c r="A21" s="1" t="s">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="305">
+      <c r="A22" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>55</v>
+        <v>240</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
@@ -3523,22 +3550,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
@@ -3546,45 +3573,45 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -3592,71 +3619,71 @@
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17">
-      <c r="A29" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -3664,48 +3691,45 @@
     </row>
     <row r="30" spans="1:9" ht="17">
       <c r="A30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17">
+      <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>10</v>
@@ -3713,25 +3737,25 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -3739,25 +3763,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -3765,25 +3789,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -3791,25 +3815,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>115</v>
+        <v>253</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -3817,25 +3841,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>117</v>
+        <v>255</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>10</v>
@@ -3843,71 +3867,71 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="32">
-      <c r="A38" s="1" t="s">
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="32">
+      <c r="A39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>10</v>
@@ -3915,25 +3939,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -3941,25 +3965,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>101</v>
+        <v>26</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -3967,25 +3991,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>303</v>
+        <v>260</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -3993,25 +4017,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>40</v>
+        <v>261</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -4019,25 +4043,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -4045,25 +4069,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -4071,67 +4095,94 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H46">
-    <sortCondition ref="A11:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H47">
+    <sortCondition ref="A12:A47"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
-    <hyperlink ref="G24" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
-    <hyperlink ref="G25" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
-    <hyperlink ref="G26" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
-    <hyperlink ref="G28" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
-    <hyperlink ref="G39" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
-    <hyperlink ref="G40" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
+    <hyperlink ref="G24" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
+    <hyperlink ref="G25" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
+    <hyperlink ref="G26" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
+    <hyperlink ref="G27" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
+    <hyperlink ref="G29" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
+    <hyperlink ref="G40" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
+    <hyperlink ref="G41" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
     <hyperlink ref="G4" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
-    <hyperlink ref="G21" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
-    <hyperlink ref="G19" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
-    <hyperlink ref="G22" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
-    <hyperlink ref="G29" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
-    <hyperlink ref="G30" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
-    <hyperlink ref="G35" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
-    <hyperlink ref="G36" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
-    <hyperlink ref="G13" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
-    <hyperlink ref="G15" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
-    <hyperlink ref="G16" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
-    <hyperlink ref="G18" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
-    <hyperlink ref="G20" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
-    <hyperlink ref="G14" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
-    <hyperlink ref="G17" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
-    <hyperlink ref="G8" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
-    <hyperlink ref="G10" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
-    <hyperlink ref="G9" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
-    <hyperlink ref="G37" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
-    <hyperlink ref="G38" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
+    <hyperlink ref="G20" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
+    <hyperlink ref="G23" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
+    <hyperlink ref="G30" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
+    <hyperlink ref="G31" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
+    <hyperlink ref="G36" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
+    <hyperlink ref="G37" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
+    <hyperlink ref="G14" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
+    <hyperlink ref="G17" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
+    <hyperlink ref="G19" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
+    <hyperlink ref="G21" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
+    <hyperlink ref="G15" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
+    <hyperlink ref="G18" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
+    <hyperlink ref="G9" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
+    <hyperlink ref="G11" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
+    <hyperlink ref="G10" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
+    <hyperlink ref="G38" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
+    <hyperlink ref="G39" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
     <hyperlink ref="G2" r:id="rId30" xr:uid="{39A7AEC3-E3F2-674E-B18D-DAD6D1D7518E}"/>
     <hyperlink ref="G3" r:id="rId31" xr:uid="{4C2D4724-69BF-6044-8404-581A44D577AC}"/>
     <hyperlink ref="G5" r:id="rId32" xr:uid="{0839A856-06F7-FE40-B60D-BC1AE0C5C782}"/>
-    <hyperlink ref="G42" r:id="rId33" xr:uid="{3B61FDA1-49F9-A549-9BEA-261B9DF6B35F}"/>
+    <hyperlink ref="G43" r:id="rId33" xr:uid="{3B61FDA1-49F9-A549-9BEA-261B9DF6B35F}"/>
     <hyperlink ref="G6" r:id="rId34" xr:uid="{113C73C1-F5A3-AC4B-BE44-A0650E11154E}"/>
+    <hyperlink ref="G8" r:id="rId35" xr:uid="{3A53FFAC-5276-794A-94F8-BB3B040766CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C76D6-7E49-EA44-8D7B-FC1F64925EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B01889-1EC3-FB41-B4FD-EFFDB1EC42C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="-20720" windowWidth="25960" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
+    <workbookView xWindow="22360" yWindow="-23000" windowWidth="25960" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
   <si>
     <t>title</t>
   </si>
@@ -2463,12 +2463,54 @@
     <t>MUN-046.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>M047</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>桃園市政府</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>施政成果資訊網</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區縣府路1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://reiso.tycg.gov.tw/governance-progress/12?id=401231e4-69cf-43f8-81df-3774403c777b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2564,6 +2606,12 @@
       <color rgb="FF000000"/>
       <name val="楷體-繁 標準體"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2927,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2976,27 +3024,27 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>298</v>
+        <v>317</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>278</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
@@ -3004,25 +3052,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>279</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
@@ -3030,25 +3078,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>275</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>71</v>
+        <v>281</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>286</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
@@ -3056,106 +3104,106 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6">
-      <c r="A6" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6">
+      <c r="A7" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>315</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>313</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>312</v>
+        <v>229</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -3163,25 +3211,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>160</v>
+        <v>311</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>163</v>
+        <v>316</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -3189,25 +3237,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -3215,25 +3263,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>295</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>165</v>
+        <v>268</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -3241,25 +3289,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>167</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -3267,25 +3315,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
@@ -3293,77 +3341,77 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18">
-      <c r="A15" s="1" t="s">
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18">
+      <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -3371,25 +3419,25 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -3397,25 +3445,25 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>158</v>
+        <v>134</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
@@ -3423,149 +3471,152 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="209">
-      <c r="A20" s="1" t="s">
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="209">
+      <c r="A21" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="9" t="s">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="305">
-      <c r="A22" s="1" t="s">
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="305">
+      <c r="A23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="9" t="s">
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>55</v>
+        <v>240</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
@@ -3573,22 +3624,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
@@ -3596,45 +3647,45 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -3642,71 +3693,71 @@
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17">
-      <c r="A30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
@@ -3714,48 +3765,45 @@
     </row>
     <row r="31" spans="1:9" ht="17">
       <c r="A31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17">
+      <c r="A32" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -3763,25 +3811,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -3789,25 +3837,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -3815,25 +3863,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -3841,25 +3889,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>115</v>
+        <v>253</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>10</v>
@@ -3867,25 +3915,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>117</v>
+        <v>255</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>10</v>
@@ -3893,71 +3941,71 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="32">
-      <c r="A39" s="1" t="s">
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="32">
+      <c r="A40" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -3965,25 +4013,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -3991,25 +4039,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>101</v>
+        <v>26</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>33</v>
+        <v>259</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -4017,25 +4065,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>303</v>
+        <v>260</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -4043,25 +4091,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>40</v>
+        <v>261</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -4069,25 +4117,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -4095,25 +4143,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -4121,68 +4169,95 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H47">
-    <sortCondition ref="A12:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:H48">
+    <sortCondition ref="A13:A48"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G24" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
-    <hyperlink ref="G25" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
-    <hyperlink ref="G26" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
-    <hyperlink ref="G27" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
-    <hyperlink ref="G29" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
-    <hyperlink ref="G40" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
-    <hyperlink ref="G41" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
-    <hyperlink ref="G4" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
-    <hyperlink ref="G12" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
-    <hyperlink ref="G13" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
-    <hyperlink ref="G22" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
-    <hyperlink ref="G20" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
-    <hyperlink ref="G23" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
-    <hyperlink ref="G30" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
-    <hyperlink ref="G31" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
-    <hyperlink ref="G36" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
-    <hyperlink ref="G37" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
-    <hyperlink ref="G14" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
-    <hyperlink ref="G16" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
-    <hyperlink ref="G17" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
-    <hyperlink ref="G19" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
-    <hyperlink ref="G21" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
-    <hyperlink ref="G15" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
-    <hyperlink ref="G18" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
-    <hyperlink ref="G9" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
-    <hyperlink ref="G11" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
-    <hyperlink ref="G10" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
-    <hyperlink ref="G38" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
-    <hyperlink ref="G39" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
-    <hyperlink ref="G2" r:id="rId30" xr:uid="{39A7AEC3-E3F2-674E-B18D-DAD6D1D7518E}"/>
-    <hyperlink ref="G3" r:id="rId31" xr:uid="{4C2D4724-69BF-6044-8404-581A44D577AC}"/>
-    <hyperlink ref="G5" r:id="rId32" xr:uid="{0839A856-06F7-FE40-B60D-BC1AE0C5C782}"/>
-    <hyperlink ref="G43" r:id="rId33" xr:uid="{3B61FDA1-49F9-A549-9BEA-261B9DF6B35F}"/>
-    <hyperlink ref="G6" r:id="rId34" xr:uid="{113C73C1-F5A3-AC4B-BE44-A0650E11154E}"/>
-    <hyperlink ref="G8" r:id="rId35" xr:uid="{3A53FFAC-5276-794A-94F8-BB3B040766CC}"/>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
+    <hyperlink ref="G26" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
+    <hyperlink ref="G27" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
+    <hyperlink ref="G28" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
+    <hyperlink ref="G30" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
+    <hyperlink ref="G41" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
+    <hyperlink ref="G42" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
+    <hyperlink ref="G21" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
+    <hyperlink ref="G24" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
+    <hyperlink ref="G31" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
+    <hyperlink ref="G32" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
+    <hyperlink ref="G37" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
+    <hyperlink ref="G38" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
+    <hyperlink ref="G15" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
+    <hyperlink ref="G17" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
+    <hyperlink ref="G18" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
+    <hyperlink ref="G20" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
+    <hyperlink ref="G22" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
+    <hyperlink ref="G16" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
+    <hyperlink ref="G19" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
+    <hyperlink ref="G10" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
+    <hyperlink ref="G12" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
+    <hyperlink ref="G11" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
+    <hyperlink ref="G39" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
+    <hyperlink ref="G40" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
+    <hyperlink ref="G3" r:id="rId30" xr:uid="{39A7AEC3-E3F2-674E-B18D-DAD6D1D7518E}"/>
+    <hyperlink ref="G4" r:id="rId31" xr:uid="{4C2D4724-69BF-6044-8404-581A44D577AC}"/>
+    <hyperlink ref="G6" r:id="rId32" xr:uid="{0839A856-06F7-FE40-B60D-BC1AE0C5C782}"/>
+    <hyperlink ref="G44" r:id="rId33" xr:uid="{3B61FDA1-49F9-A549-9BEA-261B9DF6B35F}"/>
+    <hyperlink ref="G7" r:id="rId34" xr:uid="{113C73C1-F5A3-AC4B-BE44-A0650E11154E}"/>
+    <hyperlink ref="G9" r:id="rId35" xr:uid="{3A53FFAC-5276-794A-94F8-BB3B040766CC}"/>
+    <hyperlink ref="G2" r:id="rId36" xr:uid="{9683C10D-62A7-EA48-B2D6-0049DDD0369C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B01889-1EC3-FB41-B4FD-EFFDB1EC42C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA76CC14-0EB0-2540-ACBB-2C1F0A7044A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="-23000" windowWidth="25960" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
+    <workbookView xWindow="17140" yWindow="-21800" windowWidth="41940" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="322">
   <si>
     <t>title</t>
   </si>
@@ -1584,10 +1584,6 @@
   </si>
   <si>
     <t>每週二、四 09:00 - 12:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.guishan-hro.tycg.gov.tw/home.jsp?id=167&amp;parentpath=0,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2505,12 +2501,73 @@
     <t>https://reiso.tycg.gov.tw/governance-progress/12?id=401231e4-69cf-43f8-81df-3774403c777b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.guishan-hro.tycg.gov.tw/cp.aspx?n=13516</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt;
+大坪頂 地政, 戶政, 稅務 便民工作站:  &lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>▶️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">服務項目：&lt;br&gt;
+①地政：核發各類謄本、代收本市土地登記案件、代收龜山區土地複丈及建物測量案件、販售界標、地政問題諮詢服務&lt;br&gt;
+②戶政：核發戶籍謄本、核發戶口名簿、遷入登記案件收件、戶政問題諮詢服務&lt;br&gt;
+③稅務：即時發證服務、地方稅務法令諮詢作業、受理全市地方稅各項申請書、臨櫃刷卡繳費服務&lt;br&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>▶️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服務時間：&lt;br&gt;
+①地政：每周二、四上午9時至12時、下午1時至4時&lt;br&gt;
+②戶政、稅務：每周二、四上午9時至12時&lt;br&gt;
+&lt;/p&gt;
+&lt;img src="/images/municipal/MUN-010-1.jpeg" class="w-full md:w-1/2 md:h-1/2" /&gt;
+&lt;img src="/images/municipal/MUN-010-2.jpeg" class="w-full md:w-1/2 md:h-1/2" /&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2611,6 +2668,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Apple Color Emoji"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2977,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2997,7 +3060,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3012,39 +3075,39 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18">
       <c r="A2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
@@ -3052,25 +3115,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
@@ -3078,25 +3141,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
@@ -3104,7 +3167,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>68</v>
@@ -3119,7 +3182,7 @@
         <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>71</v>
@@ -3130,25 +3193,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -3156,54 +3219,54 @@
     </row>
     <row r="7" spans="1:9" ht="409.6">
       <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -3211,25 +3274,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -3237,25 +3300,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -3263,25 +3326,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -3289,25 +3352,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
@@ -3315,7 +3378,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>73</v>
@@ -3330,7 +3393,7 @@
         <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>77</v>
@@ -3341,7 +3404,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>78</v>
@@ -3356,7 +3419,7 @@
         <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>82</v>
@@ -3367,7 +3430,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>119</v>
@@ -3382,7 +3445,7 @@
         <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>123</v>
@@ -3393,25 +3456,25 @@
     </row>
     <row r="16" spans="1:9" ht="18">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -3419,7 +3482,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>127</v>
@@ -3434,7 +3497,7 @@
         <v>130</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>131</v>
@@ -3445,7 +3508,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>132</v>
@@ -3460,7 +3523,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>136</v>
@@ -3471,25 +3534,25 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
@@ -3497,7 +3560,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>137</v>
@@ -3512,7 +3575,7 @@
         <v>140</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>141</v>
@@ -3523,10 +3586,10 @@
     </row>
     <row r="21" spans="1:9" ht="209">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>86</v>
@@ -3535,7 +3598,7 @@
         <v>87</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>88</v>
@@ -3544,12 +3607,12 @@
         <v>10</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="243">
       <c r="A22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>142</v>
@@ -3564,18 +3627,21 @@
         <v>145</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="305">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>83</v>
@@ -3587,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>85</v>
@@ -3596,12 +3662,12 @@
         <v>10</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>89</v>
@@ -3613,7 +3679,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>90</v>
@@ -3624,7 +3690,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -3636,7 +3702,7 @@
         <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>55</v>
@@ -3647,7 +3713,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>56</v>
@@ -3659,7 +3725,7 @@
         <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>59</v>
@@ -3670,7 +3736,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>60</v>
@@ -3682,7 +3748,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>63</v>
@@ -3693,22 +3759,22 @@
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>10</v>
@@ -3716,25 +3782,25 @@
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -3742,7 +3808,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>64</v>
@@ -3754,7 +3820,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>67</v>
@@ -3765,7 +3831,7 @@
     </row>
     <row r="31" spans="1:9" ht="17">
       <c r="A31" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>95</v>
@@ -3777,7 +3843,7 @@
         <v>97</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>94</v>
@@ -3788,7 +3854,7 @@
     </row>
     <row r="32" spans="1:9" ht="17">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>102</v>
@@ -3800,7 +3866,7 @@
         <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>105</v>
@@ -3811,7 +3877,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
@@ -3826,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>9</v>
@@ -3837,10 +3903,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
@@ -3852,7 +3918,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>14</v>
@@ -3863,7 +3929,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -3878,7 +3944,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>18</v>
@@ -3889,7 +3955,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -3904,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>23</v>
@@ -3915,7 +3981,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>109</v>
@@ -3930,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>115</v>
@@ -3941,7 +4007,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>110</v>
@@ -3956,7 +4022,7 @@
         <v>118</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>117</v>
@@ -3967,7 +4033,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>106</v>
@@ -3979,10 +4045,10 @@
         <v>108</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>10</v>
@@ -3990,7 +4056,7 @@
     </row>
     <row r="40" spans="1:8" ht="32">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>124</v>
@@ -4002,10 +4068,10 @@
         <v>126</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -4013,7 +4079,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>24</v>
@@ -4028,7 +4094,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>28</v>
@@ -4039,7 +4105,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>29</v>
@@ -4054,7 +4120,7 @@
         <v>31</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>32</v>
@@ -4065,7 +4131,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>98</v>
@@ -4080,7 +4146,7 @@
         <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>33</v>
@@ -4091,10 +4157,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>34</v>
@@ -4106,10 +4172,10 @@
         <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -4117,10 +4183,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>37</v>
@@ -4132,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>40</v>
@@ -4143,10 +4209,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>41</v>
@@ -4158,7 +4224,7 @@
         <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>44</v>
@@ -4169,10 +4235,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>45</v>
@@ -4184,7 +4250,7 @@
         <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>48</v>
@@ -4195,10 +4261,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>49</v>
@@ -4207,7 +4273,7 @@
         <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>51</v>
